--- a/Questions List.xlsx
+++ b/Questions List.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91921\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8712"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="464">
   <si>
     <t>Topic:</t>
   </si>
@@ -1847,8 +1847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -1908,7 +1908,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="21">
@@ -1919,7 +1919,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -1930,7 +1930,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -1941,7 +1941,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="21">
@@ -1963,7 +1963,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="21">
@@ -2007,7 +2007,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="21">
@@ -2018,7 +2018,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="21">
@@ -2276,16 +2276,12 @@
     </row>
     <row r="42" spans="1:3" ht="21">
       <c r="B42" s="7"/>
-      <c r="C42" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" ht="21">
       <c r="A43" s="5"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="C43" s="4"/>
     </row>
     <row r="44" spans="1:3" ht="21">
       <c r="A44" s="8" t="s">
@@ -2295,7 +2291,7 @@
         <v>42</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="21">
@@ -2306,7 +2302,7 @@
         <v>43</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="21">
@@ -2328,7 +2324,7 @@
         <v>45</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="21">
@@ -2372,7 +2368,7 @@
         <v>49</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="21">
@@ -2410,7 +2406,7 @@
         <v>53</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="21">
@@ -2421,7 +2417,7 @@
         <v>54</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="21">
@@ -2432,7 +2428,7 @@
         <v>55</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="21">
@@ -2443,7 +2439,7 @@
         <v>56</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="21">
